--- a/Excel/Esqueletos Excel/esqueletoClientes.xlsx
+++ b/Excel/Esqueletos Excel/esqueletoClientes.xlsx
@@ -28,7 +28,7 @@
     <t>Celular(CADENA DE CARACTERES)</t>
   </si>
   <si>
-    <t>nombre ejemplo</t>
+    <t>nombre ejemplo xlxs</t>
   </si>
   <si>
     <t>122812012-4642712</t>
@@ -131,14 +131,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100">
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.4549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.4627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -186,7 +186,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -211,7 +211,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
